--- a/inst/www/template.xlsx
+++ b/inst/www/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6afc0ed0ab75e78c/Dokumenty/Doktorat/rSalvador FluCalc/mlemur/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_010521F2446D22BC35537C169D15F0FFFCBA9FCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B105B4-A1A9-CE41-93A2-88801D443475}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_010521F2446D22BC35537C169D15F0FFFCBA9FCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D840C17C-3D37-9E45-8190-B38C5604A6BD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Strain 1</t>
   </si>
@@ -81,10 +81,7 @@
     <t>Lag</t>
   </si>
   <si>
-    <t>WildTypeDeath</t>
-  </si>
-  <si>
-    <t>MutantDeath</t>
+    <t>Death</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -262,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -464,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -527,60 +524,55 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="37" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="2"/>
-    </row>
-    <row r="40" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+    <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="36" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="39" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
